--- a/导表工具/X-血玉配置--删除.xlsx
+++ b/导表工具/X-血玉配置--删除.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="8055"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="血玉星级属性" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="457">
   <si>
     <t>导出类型</t>
   </si>
@@ -1438,12 +1438,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,20 +1496,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1517,19 +1503,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1540,28 +1524,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,32 +1545,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1612,14 +1569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1627,9 +1576,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1649,6 +1619,47 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1690,7 +1701,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,13 +1743,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,25 +1797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,13 +1821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,25 +1833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,37 +1863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,31 +1875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,6 +1936,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1940,35 +1960,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,16 +1990,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2022,163 +2018,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2614,9 +2625,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F209"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2629,4127 +2640,4127 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22"/>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>14</v>
+      <c r="A6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="12" spans="1:6">
       <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="17">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2">
+        <v>470001</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="12" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="17">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2">
         <v>470001</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="12" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="17">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2">
         <v>470001</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="12" spans="1:6">
       <c r="A11" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="17">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2">
         <v>470001</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="12" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2">
         <v>470001</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="12" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="17">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2">
         <v>470001</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="12" spans="1:6">
       <c r="A14" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="17">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>470001</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="12" spans="1:6">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="17">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2">
         <v>470001</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="12" spans="1:6">
       <c r="A16" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="17">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E16" s="2">
         <v>470001</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="12" spans="1:6">
       <c r="A17" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="17">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E17" s="2">
         <v>470001</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="12" spans="1:6">
       <c r="A18" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="17">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2">
         <v>470001</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="12" spans="1:6">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2">
         <v>470001</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="12" spans="1:6">
       <c r="A20" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2">
         <v>470001</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="12" spans="1:6">
       <c r="A21" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="17">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2">
         <v>470001</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="12" spans="1:6">
       <c r="A22" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="17">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E22" s="2">
         <v>470001</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="12" spans="1:6">
       <c r="A23" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="17">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2">
         <v>470001</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="12" spans="1:6">
       <c r="A24" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="17">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2">
         <v>470001</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="12" spans="1:6">
       <c r="A25" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="17">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E25" s="2">
         <v>470001</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="12" spans="1:6">
       <c r="A26" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="17">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E26" s="2">
         <v>470001</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="12" spans="1:6">
       <c r="A27" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="17">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E27" s="2">
         <v>470001</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" ht="12" spans="1:6">
       <c r="A28" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="17">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2">
         <v>470001</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="12" spans="1:6">
       <c r="A29" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2">
         <v>470001</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="12" spans="1:6">
       <c r="A30" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="17">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E30" s="2">
         <v>470001</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" ht="12" spans="1:6">
       <c r="A31" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="17">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2">
         <v>470001</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" ht="12" spans="1:6">
       <c r="A32" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="17">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="E32" s="2">
         <v>470001</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" ht="12" spans="1:6">
       <c r="A33" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="17">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E33" s="2">
         <v>470001</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="12" spans="1:6">
       <c r="A34" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="17">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E34" s="2">
         <v>470001</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" ht="12" spans="1:6">
       <c r="A35" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="17">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E35" s="2">
         <v>470001</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" ht="12" spans="1:6">
       <c r="A36" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="17">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="E36" s="2">
         <v>470001</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" ht="12" spans="1:6">
       <c r="A37" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="17">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="E37" s="2">
         <v>470001</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="12" spans="1:6">
       <c r="A38" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="17">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2">
         <v>470001</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" ht="12" spans="1:6">
       <c r="A39" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="17">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E39" s="2">
         <v>470001</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" ht="12" spans="1:6">
       <c r="A40" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="17">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E40" s="2">
         <v>470001</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" ht="12" spans="1:6">
       <c r="A41" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="17">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E41" s="2">
         <v>470001</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" ht="12" spans="1:6">
       <c r="A42" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="17">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E42" s="2">
         <v>470001</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" ht="12" spans="1:6">
       <c r="A43" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="17">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E43" s="2">
         <v>470001</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" ht="12" spans="1:6">
       <c r="A44" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="17">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E44" s="2">
         <v>470001</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" ht="12" spans="1:6">
       <c r="A45" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="17">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="E45" s="2">
         <v>470001</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" ht="12" spans="1:6">
       <c r="A46" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="17">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="E46" s="2">
         <v>470001</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" ht="12" spans="1:6">
       <c r="A47" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="17">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="E47" s="2">
         <v>470001</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" ht="12" spans="1:6">
       <c r="A48" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="17">
-        <v>480</v>
+        <v>140</v>
       </c>
       <c r="E48" s="2">
         <v>470001</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" ht="12" spans="1:6">
       <c r="A49" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D49" s="17">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E49" s="2">
         <v>470001</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" ht="12" spans="1:6">
       <c r="A50" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="17">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E50" s="2">
         <v>470001</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" ht="12" spans="1:6">
       <c r="A51" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="17">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="E51" s="2">
         <v>470001</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" ht="12" spans="1:6">
       <c r="A52" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="17">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="E52" s="2">
         <v>470001</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" ht="12" spans="1:6">
       <c r="A53" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="17">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="E53" s="2">
         <v>470001</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" ht="12" spans="1:6">
       <c r="A54" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="17">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="E54" s="2">
         <v>470001</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" ht="12" spans="1:6">
       <c r="A55" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="17">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="E55" s="2">
         <v>470001</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" ht="12" spans="1:6">
       <c r="A56" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="17">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="E56" s="2">
         <v>470001</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" ht="12" spans="1:6">
       <c r="A57" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="17">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="E57" s="2">
         <v>470001</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" ht="12" spans="1:6">
       <c r="A58" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="17">
-        <v>590</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2">
         <v>470001</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" ht="12" spans="1:6">
       <c r="A59" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="17">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="E59" s="2">
         <v>470001</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" ht="12" spans="1:6">
       <c r="A60" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="17">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E60" s="2">
         <v>470001</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" ht="12" spans="1:6">
       <c r="A61" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="17">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="E61" s="2">
         <v>470001</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" ht="12" spans="1:6">
       <c r="A62" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="17">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="E62" s="2">
         <v>470001</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" ht="12" spans="1:6">
       <c r="A63" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="17">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="E63" s="2">
         <v>470001</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" ht="12" spans="1:6">
       <c r="A64" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="17">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="E64" s="2">
         <v>470001</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" ht="12" spans="1:6">
       <c r="A65" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="17">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="E65" s="2">
         <v>470001</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" ht="12" spans="1:6">
       <c r="A66" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="17">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="E66" s="2">
         <v>470001</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" ht="12" spans="1:6">
       <c r="A67" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="17">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="E67" s="2">
         <v>470001</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" ht="12" spans="1:6">
       <c r="A68" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B68" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="17">
-        <v>700</v>
+        <v>185</v>
       </c>
       <c r="E68" s="2">
         <v>470001</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" ht="12" spans="1:6">
       <c r="A69" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="17">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E69" s="2">
         <v>470001</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" ht="12" spans="1:6">
       <c r="A70" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B70" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="17">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="E70" s="2">
         <v>470001</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" ht="12" spans="1:6">
       <c r="A71" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B71" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="17">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="E71" s="2">
         <v>470001</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" ht="12" spans="1:6">
       <c r="A72" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B72" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="17">
-        <v>410</v>
+        <v>485</v>
       </c>
       <c r="E72" s="2">
         <v>470001</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" ht="12" spans="1:6">
       <c r="A73" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B73" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="17">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="E73" s="2">
         <v>470001</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" ht="12" spans="1:6">
       <c r="A74" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B74" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="17">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="E74" s="2">
         <v>470001</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" ht="12" spans="1:6">
       <c r="A75" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B75" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="17">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="E75" s="2">
         <v>470001</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" ht="12" spans="1:6">
       <c r="A76" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B76" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="17">
-        <v>710</v>
+        <v>785</v>
       </c>
       <c r="E76" s="2">
         <v>470001</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" ht="12" spans="1:6">
       <c r="A77" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B77" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="17">
-        <v>785</v>
+        <v>860</v>
       </c>
       <c r="E77" s="2">
         <v>470001</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" ht="12" spans="1:6">
       <c r="A78" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B78" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="17">
-        <v>860</v>
+        <v>210</v>
       </c>
       <c r="E78" s="2">
         <v>470001</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" ht="12" spans="1:6">
       <c r="A79" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B79" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="17">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="E79" s="2">
         <v>470001</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" ht="12" spans="1:6">
       <c r="A80" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B80" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="17">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="E80" s="2">
         <v>470001</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" ht="12" spans="1:6">
       <c r="A81" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B81" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="17">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="E81" s="2">
         <v>470001</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" ht="12" spans="1:6">
       <c r="A82" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B82" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="17">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="E82" s="2">
         <v>470001</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" ht="12" spans="1:6">
       <c r="A83" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B83" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="17">
-        <v>570</v>
+        <v>660</v>
       </c>
       <c r="E83" s="2">
         <v>470001</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" ht="12" spans="1:6">
       <c r="A84" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B84" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="17">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="E84" s="2">
         <v>470001</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" ht="12" spans="1:6">
       <c r="A85" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B85" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="17">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="E85" s="2">
         <v>470001</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" ht="12" spans="1:6">
       <c r="A86" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B86" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="17">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="E86" s="2">
         <v>470001</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" ht="12" spans="1:6">
       <c r="A87" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B87" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="17">
-        <v>930</v>
+        <v>1020</v>
       </c>
       <c r="E87" s="2">
         <v>470001</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" ht="12" spans="1:6">
       <c r="A88" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="17">
-        <v>1020</v>
+        <v>235</v>
       </c>
       <c r="E88" s="2">
         <v>470001</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" ht="12" spans="1:6">
       <c r="A89" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B89" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="17">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="E89" s="2">
         <v>470001</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" ht="12" spans="1:6">
       <c r="A90" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B90" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="17">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="E90" s="2">
         <v>470001</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" ht="12" spans="1:6">
       <c r="A91" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B91" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="17">
-        <v>445</v>
+        <v>550</v>
       </c>
       <c r="E91" s="2">
         <v>470001</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" ht="12" spans="1:6">
       <c r="A92" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B92" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="17">
-        <v>550</v>
+        <v>655</v>
       </c>
       <c r="E92" s="2">
         <v>470001</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" ht="12" spans="1:6">
       <c r="A93" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B93" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="17">
-        <v>655</v>
+        <v>760</v>
       </c>
       <c r="E93" s="2">
         <v>470001</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" ht="12" spans="1:6">
       <c r="A94" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B94" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="17">
-        <v>760</v>
+        <v>865</v>
       </c>
       <c r="E94" s="2">
         <v>470001</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" ht="12" spans="1:6">
       <c r="A95" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B95" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D95" s="17">
-        <v>865</v>
+        <v>970</v>
       </c>
       <c r="E95" s="2">
         <v>470001</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" ht="12" spans="1:6">
       <c r="A96" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B96" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D96" s="17">
-        <v>970</v>
+        <v>1075</v>
       </c>
       <c r="E96" s="2">
         <v>470001</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" ht="12" spans="1:6">
       <c r="A97" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B97" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="17">
-        <v>1075</v>
+        <v>1180</v>
       </c>
       <c r="E97" s="2">
         <v>470001</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" ht="12" spans="1:6">
       <c r="A98" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B98" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="17">
-        <v>1180</v>
+        <v>260</v>
       </c>
       <c r="E98" s="2">
         <v>470001</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" ht="12" spans="1:6">
       <c r="A99" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B99" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="17">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="E99" s="2">
         <v>470001</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" ht="12" spans="1:6">
       <c r="A100" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B100" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D100" s="17">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="E100" s="2">
         <v>470001</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" ht="12" spans="1:6">
       <c r="A101" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B101" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D101" s="17">
-        <v>500</v>
+        <v>620</v>
       </c>
       <c r="E101" s="2">
         <v>470001</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" ht="12" spans="1:6">
       <c r="A102" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B102" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="17">
-        <v>620</v>
+        <v>740</v>
       </c>
       <c r="E102" s="2">
         <v>470001</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" ht="12" spans="1:6">
       <c r="A103" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B103" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="17">
-        <v>740</v>
+        <v>860</v>
       </c>
       <c r="E103" s="2">
         <v>470001</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" ht="12" spans="1:6">
       <c r="A104" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B104" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="17">
-        <v>860</v>
+        <v>980</v>
       </c>
       <c r="E104" s="2">
         <v>470001</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" ht="12" spans="1:6">
       <c r="A105" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="17">
-        <v>980</v>
+        <v>1100</v>
       </c>
       <c r="E105" s="2">
         <v>470001</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" ht="12" spans="1:6">
       <c r="A106" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B106" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="17">
-        <v>1100</v>
+        <v>1220</v>
       </c>
       <c r="E106" s="2">
         <v>470001</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" ht="12" spans="1:6">
       <c r="A107" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B107" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D107" s="17">
-        <v>1220</v>
+        <v>1340</v>
       </c>
       <c r="E107" s="2">
         <v>470001</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" ht="12" spans="1:6">
       <c r="A108" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B108" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D108" s="17">
-        <v>1340</v>
+        <v>285</v>
       </c>
       <c r="E108" s="2">
         <v>470001</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" ht="12" spans="1:6">
       <c r="A109" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B109" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D109" s="17">
-        <v>285</v>
+        <v>420</v>
       </c>
       <c r="E109" s="2">
         <v>470001</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" ht="12" spans="1:6">
       <c r="A110" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B110" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D110" s="17">
-        <v>420</v>
+        <v>555</v>
       </c>
       <c r="E110" s="2">
         <v>470001</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" ht="12" spans="1:6">
       <c r="A111" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B111" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D111" s="17">
-        <v>555</v>
+        <v>690</v>
       </c>
       <c r="E111" s="2">
         <v>470001</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" ht="12" spans="1:6">
       <c r="A112" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B112" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D112" s="17">
-        <v>690</v>
+        <v>825</v>
       </c>
       <c r="E112" s="2">
         <v>470001</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" ht="12" spans="1:6">
       <c r="A113" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B113" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D113" s="17">
-        <v>825</v>
+        <v>960</v>
       </c>
       <c r="E113" s="2">
         <v>470001</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" ht="12" spans="1:6">
       <c r="A114" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B114" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D114" s="17">
-        <v>960</v>
+        <v>1095</v>
       </c>
       <c r="E114" s="2">
         <v>470001</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" ht="12" spans="1:6">
       <c r="A115" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B115" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D115" s="17">
-        <v>1095</v>
+        <v>1230</v>
       </c>
       <c r="E115" s="2">
         <v>470001</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" ht="12" spans="1:6">
       <c r="A116" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B116" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D116" s="17">
-        <v>1230</v>
+        <v>1365</v>
       </c>
       <c r="E116" s="2">
         <v>470001</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" ht="12" spans="1:6">
       <c r="A117" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B117" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D117" s="17">
-        <v>1365</v>
+        <v>1500</v>
       </c>
       <c r="E117" s="2">
         <v>470001</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" ht="12" spans="1:6">
       <c r="A118" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B118" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D118" s="17">
-        <v>1500</v>
+        <v>310</v>
       </c>
       <c r="E118" s="2">
         <v>470001</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" ht="12" spans="1:6">
       <c r="A119" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B119" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="17">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="E119" s="2">
         <v>470001</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" ht="12" spans="1:6">
       <c r="A120" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B120" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D120" s="17">
-        <v>460</v>
+        <v>610</v>
       </c>
       <c r="E120" s="2">
         <v>470001</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" ht="12" spans="1:6">
       <c r="A121" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B121" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D121" s="17">
-        <v>610</v>
+        <v>760</v>
       </c>
       <c r="E121" s="2">
         <v>470001</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" ht="12" spans="1:6">
       <c r="A122" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B122" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D122" s="17">
-        <v>760</v>
+        <v>910</v>
       </c>
       <c r="E122" s="2">
         <v>470001</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" ht="12" spans="1:6">
       <c r="A123" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B123" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D123" s="17">
-        <v>910</v>
+        <v>1060</v>
       </c>
       <c r="E123" s="2">
         <v>470001</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" ht="12" spans="1:6">
       <c r="A124" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B124" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D124" s="17">
-        <v>1060</v>
+        <v>1210</v>
       </c>
       <c r="E124" s="2">
         <v>470001</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" ht="12" spans="1:6">
       <c r="A125" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B125" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D125" s="17">
-        <v>1210</v>
+        <v>1360</v>
       </c>
       <c r="E125" s="2">
         <v>470001</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" ht="12" spans="1:6">
       <c r="A126" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B126" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D126" s="17">
-        <v>1360</v>
+        <v>1510</v>
       </c>
       <c r="E126" s="2">
         <v>470001</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" ht="12" spans="1:6">
       <c r="A127" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B127" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D127" s="17">
-        <v>1510</v>
+        <v>1660</v>
       </c>
       <c r="E127" s="2">
         <v>470001</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" ht="12" spans="1:6">
       <c r="A128" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B128" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D128" s="17">
-        <v>1660</v>
+        <v>340</v>
       </c>
       <c r="E128" s="2">
         <v>470001</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" ht="12" spans="1:6">
       <c r="A129" s="15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B129" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D129" s="17">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="E129" s="2">
         <v>470001</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" ht="12" spans="1:6">
       <c r="A130" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B130" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D130" s="17">
-        <v>510</v>
+        <v>680</v>
       </c>
       <c r="E130" s="2">
         <v>470001</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" ht="12" spans="1:6">
       <c r="A131" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B131" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D131" s="17">
-        <v>680</v>
+        <v>850</v>
       </c>
       <c r="E131" s="2">
         <v>470001</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" ht="12" spans="1:6">
       <c r="A132" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B132" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D132" s="17">
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="E132" s="2">
         <v>470001</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" ht="12" spans="1:6">
       <c r="A133" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B133" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D133" s="17">
-        <v>1020</v>
+        <v>1190</v>
       </c>
       <c r="E133" s="2">
         <v>470001</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" ht="12" spans="1:6">
       <c r="A134" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B134" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D134" s="17">
-        <v>1190</v>
+        <v>1360</v>
       </c>
       <c r="E134" s="2">
         <v>470001</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" ht="12" spans="1:6">
       <c r="A135" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B135" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D135" s="17">
-        <v>1360</v>
+        <v>1530</v>
       </c>
       <c r="E135" s="2">
         <v>470001</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" ht="12" spans="1:6">
       <c r="A136" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B136" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D136" s="17">
-        <v>1530</v>
+        <v>1700</v>
       </c>
       <c r="E136" s="2">
         <v>470001</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" ht="12" spans="1:6">
       <c r="A137" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B137" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D137" s="17">
-        <v>1700</v>
+        <v>1870</v>
       </c>
       <c r="E137" s="2">
         <v>470001</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138" ht="12" spans="1:6">
       <c r="A138" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B138" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D138" s="17">
-        <v>1870</v>
+        <v>370</v>
       </c>
       <c r="E138" s="2">
         <v>470001</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" ht="12" spans="1:6">
       <c r="A139" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B139" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D139" s="17">
-        <v>370</v>
+        <v>560</v>
       </c>
       <c r="E139" s="2">
         <v>470001</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" ht="12" spans="1:6">
       <c r="A140" s="15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B140" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D140" s="17">
-        <v>560</v>
+        <v>750</v>
       </c>
       <c r="E140" s="2">
         <v>470001</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" ht="12" spans="1:6">
       <c r="A141" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B141" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D141" s="17">
-        <v>750</v>
+        <v>940</v>
       </c>
       <c r="E141" s="2">
         <v>470001</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" ht="12" spans="1:6">
       <c r="A142" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B142" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D142" s="17">
-        <v>940</v>
+        <v>1130</v>
       </c>
       <c r="E142" s="2">
         <v>470001</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" ht="12" spans="1:6">
       <c r="A143" s="15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B143" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D143" s="17">
-        <v>1130</v>
+        <v>1320</v>
       </c>
       <c r="E143" s="2">
         <v>470001</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" ht="12" spans="1:6">
       <c r="A144" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B144" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D144" s="17">
-        <v>1320</v>
+        <v>1510</v>
       </c>
       <c r="E144" s="2">
         <v>470001</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145" ht="12" spans="1:6">
       <c r="A145" s="15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B145" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D145" s="17">
-        <v>1510</v>
+        <v>1700</v>
       </c>
       <c r="E145" s="2">
         <v>470001</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" ht="12" spans="1:6">
       <c r="A146" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B146" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D146" s="17">
-        <v>1700</v>
+        <v>1890</v>
       </c>
       <c r="E146" s="2">
         <v>470001</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" ht="12" spans="1:6">
       <c r="A147" s="15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B147" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D147" s="17">
-        <v>1890</v>
+        <v>2080</v>
       </c>
       <c r="E147" s="2">
         <v>470001</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" ht="12" spans="1:6">
       <c r="A148" s="15" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B148" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D148" s="17">
-        <v>2080</v>
+        <v>400</v>
       </c>
       <c r="E148" s="2">
         <v>470001</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" ht="12" spans="1:6">
       <c r="A149" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B149" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D149" s="17">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="E149" s="2">
         <v>470001</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" ht="12" spans="1:6">
       <c r="A150" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B150" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D150" s="17">
-        <v>610</v>
+        <v>820</v>
       </c>
       <c r="E150" s="2">
         <v>470001</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" ht="12" spans="1:6">
       <c r="A151" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B151" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D151" s="17">
-        <v>820</v>
+        <v>1030</v>
       </c>
       <c r="E151" s="2">
         <v>470001</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" ht="12" spans="1:6">
       <c r="A152" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B152" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D152" s="17">
-        <v>1030</v>
+        <v>1240</v>
       </c>
       <c r="E152" s="2">
         <v>470001</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" ht="12" spans="1:6">
       <c r="A153" s="15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B153" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D153" s="17">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="E153" s="2">
         <v>470001</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" ht="12" spans="1:6">
       <c r="A154" s="15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B154" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D154" s="17">
-        <v>1450</v>
+        <v>1660</v>
       </c>
       <c r="E154" s="2">
         <v>470001</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155" ht="12" spans="1:6">
       <c r="A155" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B155" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D155" s="17">
-        <v>1660</v>
+        <v>1870</v>
       </c>
       <c r="E155" s="2">
         <v>470001</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156" ht="12" spans="1:6">
       <c r="A156" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B156" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D156" s="17">
-        <v>1870</v>
+        <v>2080</v>
       </c>
       <c r="E156" s="2">
         <v>470001</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" ht="12" spans="1:6">
       <c r="A157" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B157" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D157" s="17">
-        <v>2080</v>
+        <v>2290</v>
       </c>
       <c r="E157" s="2">
         <v>470001</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158" ht="12" spans="1:6">
       <c r="A158" s="15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B158" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D158" s="17">
-        <v>2290</v>
+        <v>430</v>
       </c>
       <c r="E158" s="2">
         <v>470001</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159" ht="12" spans="1:6">
       <c r="A159" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B159" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D159" s="17">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="E159" s="2">
         <v>470001</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="160" ht="12" spans="1:6">
       <c r="A160" s="15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B160" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D160" s="17">
-        <v>660</v>
+        <v>890</v>
       </c>
       <c r="E160" s="2">
         <v>470001</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" ht="12" spans="1:6">
       <c r="A161" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B161" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D161" s="17">
-        <v>890</v>
+        <v>1120</v>
       </c>
       <c r="E161" s="2">
         <v>470001</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" ht="12" spans="1:6">
       <c r="A162" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B162" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D162" s="17">
-        <v>1120</v>
+        <v>1350</v>
       </c>
       <c r="E162" s="2">
         <v>470001</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" ht="12" spans="1:6">
       <c r="A163" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B163" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D163" s="17">
-        <v>1350</v>
+        <v>1580</v>
       </c>
       <c r="E163" s="2">
         <v>470001</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" ht="12" spans="1:6">
       <c r="A164" s="15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B164" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D164" s="17">
-        <v>1580</v>
+        <v>1810</v>
       </c>
       <c r="E164" s="2">
         <v>470001</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" ht="12" spans="1:6">
       <c r="A165" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B165" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D165" s="17">
-        <v>1810</v>
+        <v>2040</v>
       </c>
       <c r="E165" s="2">
         <v>470001</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" ht="12" spans="1:6">
       <c r="A166" s="15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B166" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D166" s="17">
-        <v>2040</v>
+        <v>2270</v>
       </c>
       <c r="E166" s="2">
         <v>470001</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" ht="12" spans="1:6">
       <c r="A167" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B167" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D167" s="17">
-        <v>2270</v>
+        <v>2500</v>
       </c>
       <c r="E167" s="2">
         <v>470001</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" ht="12" spans="1:6">
       <c r="A168" s="15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B168" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D168" s="17">
-        <v>2500</v>
+        <v>460</v>
       </c>
       <c r="E168" s="2">
         <v>470001</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" ht="12" spans="1:6">
       <c r="A169" s="15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B169" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D169" s="17">
-        <v>460</v>
+        <v>710</v>
       </c>
       <c r="E169" s="2">
         <v>470001</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" ht="12" spans="1:6">
       <c r="A170" s="15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B170" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D170" s="17">
-        <v>710</v>
+        <v>960</v>
       </c>
       <c r="E170" s="2">
         <v>470001</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" ht="12" spans="1:6">
       <c r="A171" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B171" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D171" s="17">
-        <v>960</v>
+        <v>1210</v>
       </c>
       <c r="E171" s="2">
         <v>470001</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" ht="12" spans="1:6">
       <c r="A172" s="15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B172" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D172" s="17">
-        <v>1210</v>
+        <v>1460</v>
       </c>
       <c r="E172" s="2">
         <v>470001</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" ht="12" spans="1:6">
       <c r="A173" s="15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B173" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D173" s="17">
-        <v>1460</v>
+        <v>1710</v>
       </c>
       <c r="E173" s="2">
         <v>470001</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" ht="12" spans="1:6">
       <c r="A174" s="15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B174" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D174" s="17">
-        <v>1710</v>
+        <v>1960</v>
       </c>
       <c r="E174" s="2">
         <v>470001</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" ht="12" spans="1:6">
       <c r="A175" s="15" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B175" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D175" s="17">
-        <v>1960</v>
+        <v>2210</v>
       </c>
       <c r="E175" s="2">
         <v>470001</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="176" ht="12" spans="1:6">
       <c r="A176" s="15" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B176" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D176" s="17">
-        <v>2210</v>
+        <v>2460</v>
       </c>
       <c r="E176" s="2">
         <v>470001</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="177" ht="12" spans="1:6">
       <c r="A177" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B177" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D177" s="17">
-        <v>2460</v>
+        <v>2710</v>
       </c>
       <c r="E177" s="2">
         <v>470001</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="178" ht="12" spans="1:6">
       <c r="A178" s="15" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B178" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D178" s="17">
-        <v>2710</v>
+        <v>490</v>
       </c>
       <c r="E178" s="2">
         <v>470001</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" ht="12" spans="1:6">
       <c r="A179" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B179" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D179" s="17">
-        <v>490</v>
+        <v>760</v>
       </c>
       <c r="E179" s="2">
         <v>470001</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" ht="12" spans="1:6">
       <c r="A180" s="15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B180" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D180" s="17">
-        <v>760</v>
+        <v>1030</v>
       </c>
       <c r="E180" s="2">
         <v>470001</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" ht="12" spans="1:6">
       <c r="A181" s="15" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B181" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D181" s="17">
-        <v>1030</v>
+        <v>1300</v>
       </c>
       <c r="E181" s="2">
         <v>470001</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" ht="12" spans="1:6">
       <c r="A182" s="15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B182" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D182" s="17">
-        <v>1300</v>
+        <v>1570</v>
       </c>
       <c r="E182" s="2">
         <v>470001</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" ht="12" spans="1:6">
       <c r="A183" s="15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B183" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D183" s="17">
-        <v>1570</v>
+        <v>1840</v>
       </c>
       <c r="E183" s="2">
         <v>470001</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" ht="12" spans="1:6">
       <c r="A184" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B184" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D184" s="17">
-        <v>1840</v>
+        <v>2110</v>
       </c>
       <c r="E184" s="2">
         <v>470001</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" ht="12" spans="1:6">
       <c r="A185" s="15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B185" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D185" s="17">
-        <v>2110</v>
+        <v>2380</v>
       </c>
       <c r="E185" s="2">
         <v>470001</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" ht="12" spans="1:6">
       <c r="A186" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B186" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D186" s="17">
-        <v>2380</v>
+        <v>2650</v>
       </c>
       <c r="E186" s="2">
         <v>470001</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" ht="12" spans="1:6">
       <c r="A187" s="15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B187" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D187" s="17">
-        <v>2650</v>
+        <v>2920</v>
       </c>
       <c r="E187" s="2">
         <v>470001</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" ht="12" spans="1:6">
       <c r="A188" s="15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B188" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D188" s="17">
-        <v>2920</v>
+        <v>520</v>
       </c>
       <c r="E188" s="2">
         <v>470001</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" ht="12" spans="1:6">
       <c r="A189" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B189" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D189" s="17">
-        <v>520</v>
+        <v>810</v>
       </c>
       <c r="E189" s="2">
         <v>470001</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" ht="12" spans="1:6">
       <c r="A190" s="15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B190" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D190" s="17">
-        <v>810</v>
+        <v>1100</v>
       </c>
       <c r="E190" s="2">
         <v>470001</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" ht="12" spans="1:6">
       <c r="A191" s="15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B191" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D191" s="17">
-        <v>1100</v>
+        <v>1390</v>
       </c>
       <c r="E191" s="2">
         <v>470001</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="192" ht="12" spans="1:6">
       <c r="A192" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B192" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="17">
-        <v>1390</v>
+        <v>1680</v>
       </c>
       <c r="E192" s="2">
         <v>470001</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="193" ht="12" spans="1:6">
       <c r="A193" s="15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B193" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D193" s="17">
-        <v>1680</v>
+        <v>1970</v>
       </c>
       <c r="E193" s="2">
         <v>470001</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="194" ht="12" spans="1:6">
       <c r="A194" s="15" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B194" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D194" s="17">
-        <v>1970</v>
+        <v>2260</v>
       </c>
       <c r="E194" s="2">
         <v>470001</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="195" ht="12" spans="1:6">
       <c r="A195" s="15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B195" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D195" s="17">
-        <v>2260</v>
+        <v>2550</v>
       </c>
       <c r="E195" s="2">
         <v>470001</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196" ht="12" spans="1:6">
       <c r="A196" s="15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B196" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D196" s="17">
-        <v>2550</v>
+        <v>2840</v>
       </c>
       <c r="E196" s="2">
         <v>470001</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197" ht="12" spans="1:6">
       <c r="A197" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B197" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D197" s="17">
-        <v>2840</v>
+        <v>3130</v>
       </c>
       <c r="E197" s="2">
         <v>470001</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="198" ht="12" spans="1:6">
       <c r="A198" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B198" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D198" s="17">
-        <v>3130</v>
+        <v>550</v>
       </c>
       <c r="E198" s="2">
         <v>470001</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" ht="12" spans="1:6">
       <c r="A199" s="15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B199" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C199" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D199" s="17">
-        <v>550</v>
+        <v>860</v>
       </c>
       <c r="E199" s="2">
         <v>470001</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" ht="12" spans="1:6">
       <c r="A200" s="15" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B200" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C200" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D200" s="17">
-        <v>860</v>
+        <v>1170</v>
       </c>
       <c r="E200" s="2">
         <v>470001</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="201" ht="12" spans="1:6">
       <c r="A201" s="15" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B201" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C201" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D201" s="17">
-        <v>1170</v>
+        <v>1480</v>
       </c>
       <c r="E201" s="2">
         <v>470001</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" ht="12" spans="1:6">
       <c r="A202" s="15" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B202" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C202" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D202" s="17">
-        <v>1480</v>
+        <v>1790</v>
       </c>
       <c r="E202" s="2">
         <v>470001</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="203" ht="12" spans="1:6">
       <c r="A203" s="15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B203" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D203" s="17">
-        <v>1790</v>
+        <v>2100</v>
       </c>
       <c r="E203" s="2">
         <v>470001</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="204" ht="12" spans="1:6">
       <c r="A204" s="15" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B204" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D204" s="17">
-        <v>2100</v>
+        <v>2410</v>
       </c>
       <c r="E204" s="2">
         <v>470001</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="205" ht="12" spans="1:6">
       <c r="A205" s="15" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B205" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D205" s="17">
-        <v>2410</v>
+        <v>2720</v>
       </c>
       <c r="E205" s="2">
         <v>470001</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" ht="12" spans="1:6">
       <c r="A206" s="15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B206" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D206" s="17">
-        <v>2720</v>
+        <v>3030</v>
       </c>
       <c r="E206" s="2">
         <v>470001</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="207" ht="12" spans="1:6">
       <c r="A207" s="15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B207" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D207" s="17">
-        <v>3030</v>
+        <v>3340</v>
       </c>
       <c r="E207" s="2">
         <v>470001</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="208" ht="12" spans="1:6">
       <c r="A208" s="15" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B208" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D208" s="17">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="E208" s="2">
         <v>470001</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="209" ht="12" spans="1:6">
-      <c r="A209" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="B209" s="2">
-        <v>200</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D209" s="17">
-        <v>0</v>
-      </c>
-      <c r="E209" s="2">
-        <v>470001</v>
-      </c>
-      <c r="F209" s="18" t="s">
         <v>425</v>
       </c>
     </row>
